--- a/default/app/temp/templates_informes/template_registrointernoproveedores.xlsx
+++ b/default/app/temp/templates_informes/template_registrointernoproveedores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">EMPRESA DE OBRAS SANITARIAS DE PASTO EMPOPASTO </t>
   </si>
@@ -72,9 +72,6 @@
     <t>Apellido contacto</t>
   </si>
   <si>
-    <t>Dirección contacto</t>
-  </si>
-  <si>
     <t>Tarjeta profesional</t>
   </si>
   <si>
@@ -84,10 +81,7 @@
     <t>Ponderado</t>
   </si>
   <si>
-    <t>Empresa de Obras sanitarias de Pasto - Empopasto S.A.E.S.P</t>
-  </si>
-  <si>
-    <t>Sede Administrativa Cr 24-21-40 Pasto -Colombia -www.empopasto.com.co</t>
+    <t>ACTIVIDADES REGISTRADAS</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +152,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,15 +175,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:colOff>493060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99172</xdr:colOff>
+      <xdr:colOff>312085</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1120</xdr:rowOff>
+      <xdr:rowOff>45943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -207,7 +204,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2633382" y="134470"/>
+          <a:off x="2084295" y="179293"/>
           <a:ext cx="2867025" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -507,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:D35"/>
+  <dimension ref="B7:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,124 +515,128 @@
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="29" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
